--- a/Analysis/Formal Analysis NAV3/B Variation/B Variation Analysis.xlsx
+++ b/Analysis/Formal Analysis NAV3/B Variation/B Variation Analysis.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdsup\Documents\GitHub\ESC190-snek\Analysis\Formal Analysis NAV3\B Variation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F88F069-7DC6-49AE-B721-15EA2C73CC6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE73A63B-879E-43E5-AD8E-2413CEA66FB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Graphing" sheetId="2" r:id="rId2"/>
+    <sheet name="Graphing, AVG" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -204,7 +204,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Graphing!$C$1</c:f>
+              <c:f>'Graphing, AVG'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -289,7 +289,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Graphing!$B$2:$B$16</c:f>
+              <c:f>'Graphing, AVG'!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -343,7 +343,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Graphing!$C$2:$C$16</c:f>
+              <c:f>'Graphing, AVG'!$C$2:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -656,7 +656,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Graphing!$C$1</c:f>
+              <c:f>'Graphing, AVG'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -740,7 +740,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Graphing!$A$2:$A$16</c:f>
+              <c:f>'Graphing, AVG'!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -794,7 +794,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Graphing!$C$2:$C$16</c:f>
+              <c:f>'Graphing, AVG'!$C$2:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1082,7 +1082,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Graphing!$E$1</c:f>
+              <c:f>'Graphing, AVG'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1167,7 +1167,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Graphing!$B$2:$B$16</c:f>
+              <c:f>'Graphing, AVG'!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1221,7 +1221,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Graphing!$E$2:$E$16</c:f>
+              <c:f>'Graphing, AVG'!$E$2:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1454,6 +1454,458 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Moogles Eaten vs Board Area</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Graphing, AVG'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Moogles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.19413035870516185"/>
+                  <c:y val="-0.12071084864391952"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Graphing, AVG'!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>225</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Graphing, AVG'!$D$2:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.67</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55.51</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63.36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>69.040000000000006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>77.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>96.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A248-41BD-9D8B-BB1F3AE370BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="465369728"/>
+        <c:axId val="465368088"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="465369728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="465368088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="465368088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="465369728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1574,6 +2026,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2607,6 +3099,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3227,6 +4235,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>291352</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>136393</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>291352</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>94131</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC156A9D-F505-467B-8E4D-C633CFA468EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4815,8 +5859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17016F2D-3D8F-4568-ACFA-E72A8819701A}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/Analysis/Formal Analysis NAV3/B Variation/B Variation Analysis.xlsx
+++ b/Analysis/Formal Analysis NAV3/B Variation/B Variation Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdsup\Documents\GitHub\ESC190-snek\Analysis\Formal Analysis NAV3\B Variation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE73A63B-879E-43E5-AD8E-2413CEA66FB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0BB9E9-B0DE-4750-B558-75119A5995F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="19">
   <si>
     <t>Score</t>
   </si>
@@ -70,6 +70,27 @@
   </si>
   <si>
     <t>Board Area</t>
+  </si>
+  <si>
+    <t>Only 11 Trials Available</t>
+  </si>
+  <si>
+    <t>Trials</t>
+  </si>
+  <si>
+    <t>Log Board Size</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Avg Total Compute</t>
   </si>
 </sst>
 </file>
@@ -111,7 +132,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -195,7 +223,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12711232008556123"/>
+          <c:y val="0.17111382753228072"/>
+          <c:w val="0.82922052452647976"/>
+          <c:h val="0.64248648197020852"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -383,8 +421,14 @@
                 <c:pt idx="11">
                   <c:v>5309.35</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>6172.32</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6853.54347826087</c:v>
+                </c:pt>
                 <c:pt idx="14">
-                  <c:v>7666.8</c:v>
+                  <c:v>7815.454545454545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -428,6 +472,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Board Size (Side Length)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -490,6 +589,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -647,7 +801,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12026159230096238"/>
+          <c:y val="0.17171296296296296"/>
+          <c:w val="0.83018285214348209"/>
+          <c:h val="0.66438283756197136"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -834,8 +998,14 @@
                 <c:pt idx="11">
                   <c:v>5309.35</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>6172.32</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6853.54347826087</c:v>
+                </c:pt>
                 <c:pt idx="14">
-                  <c:v>7666.8</c:v>
+                  <c:v>7815.454545454545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -879,6 +1049,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Board Area (Number of Squares)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -941,6 +1166,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1123,9 +1403,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="4"/>
-            <c:intercept val="0"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -1165,6 +1443,51 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'Graphing, AVG'!$B$2:$B$16</c:f>
@@ -1261,8 +1584,14 @@
                 <c:pt idx="11">
                   <c:v>43.778791482448554</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>212.01632247924746</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>231.10101114148648</c:v>
+                </c:pt>
                 <c:pt idx="14">
-                  <c:v>215.21549615859939</c:v>
+                  <c:v>482.84139524806432</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1306,6 +1635,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Board Size (Side Length)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1368,6 +1752,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Runtime (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1525,7 +1964,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11870603674540682"/>
+          <c:y val="0.17171296296296296"/>
+          <c:w val="0.83173840769903751"/>
+          <c:h val="0.64586431904345276"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1583,8 +2032,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.19413035870516185"/>
-                  <c:y val="-0.12071084864391952"/>
+                  <c:x val="-0.25640944881889766"/>
+                  <c:y val="-1.9037255759696704E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1713,8 +2162,14 @@
                 <c:pt idx="11">
                   <c:v>77.599999999999994</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>86.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>91.282608695652172</c:v>
+                </c:pt>
                 <c:pt idx="14">
-                  <c:v>96.4</c:v>
+                  <c:v>98.181818181818187</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1758,6 +2213,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Board Area (Number of Squares)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1820,6 +2330,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Moogles Eaten</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4134,16 +4699,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>484895</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>108856</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>127745</xdr:rowOff>
+      <xdr:rowOff>95728</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>484895</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>62271</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>95088</xdr:rowOff>
+      <xdr:rowOff>63071</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4170,16 +4735,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>576303</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>153680</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>123584</xdr:rowOff>
+      <xdr:rowOff>91567</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>576303</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>153680</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>81322</xdr:rowOff>
+      <xdr:rowOff>49305</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4206,16 +4771,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>105655</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>14727</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>60830</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>72358</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>105655</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>60830</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>158163</xdr:rowOff>
+      <xdr:rowOff>30096</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4242,16 +4807,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>291352</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>124864</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>136393</xdr:rowOff>
+      <xdr:rowOff>91569</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>291352</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>124864</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>94131</xdr:rowOff>
+      <xdr:rowOff>49307</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4277,6 +4842,30 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3480034F-7A6E-410B-A285-DF4982BB7B4C}" name="Table2" displayName="Table2" ref="A1:H17" totalsRowCount="1">
+  <autoFilter ref="A1:H16" xr:uid="{09209E8A-0B03-4D40-8BF6-70D0F1881268}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{8643F9DA-E050-4849-88A4-13ECAB07374B}" name="Board Area">
+      <calculatedColumnFormula>B2^2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{BF37C272-7103-4FB5-8301-E0A8B7FA41C4}" name="Board Size"/>
+    <tableColumn id="3" xr3:uid="{18DEE075-D429-47C5-A73E-1BC1D4265530}" name="Score"/>
+    <tableColumn id="4" xr3:uid="{168AAC4B-F4CD-4562-B0C4-36C4E978CD17}" name="Moogles"/>
+    <tableColumn id="5" xr3:uid="{79110594-444D-49EF-BC9A-CC0A12113BBE}" name="Runtime"/>
+    <tableColumn id="6" xr3:uid="{6D077D65-9836-4E81-814C-2A0577AA3770}" name="Trials" totalsRowFunction="sum"/>
+    <tableColumn id="7" xr3:uid="{77F993CA-FEA0-489D-8DC7-0BA69A688880}" name="Log Board Size" dataDxfId="1">
+      <calculatedColumnFormula>LOG10(Table2[[#This Row],[Board Size]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{EFF03EE6-8A9B-40B5-8F91-63E37A2D1814}" name="Avg Total Compute" totalsRowFunction="custom" dataDxfId="0">
+      <calculatedColumnFormula>Table2[[#This Row],[Runtime]]*Table2[[#This Row],[Trials]]</calculatedColumnFormula>
+      <totalsRowFormula>SUM(Table2[Avg Total Compute])</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium28" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4544,8 +5133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D116"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B111" activeCellId="12" sqref="B3:D3 B12:D12 B21:D21 B30:D30 B39:D39 B48:D48 B57:D57 B66:D66 B75:D75 B84:D84 B93:D93 B102:D102 B111:D111"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111:D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5754,6 +6343,9 @@
       <c r="A109" t="s">
         <v>9</v>
       </c>
+      <c r="B109" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B110" t="s">
@@ -5771,13 +6363,13 @@
         <v>3</v>
       </c>
       <c r="B111">
-        <v>7666.8</v>
+        <v>7815.454545454545</v>
       </c>
       <c r="C111">
-        <v>96.4</v>
+        <v>98.181818181818187</v>
       </c>
       <c r="D111">
-        <v>215.21549615859939</v>
+        <v>482.84139524806432</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.4">
@@ -5785,13 +6377,13 @@
         <v>4</v>
       </c>
       <c r="B112">
-        <v>8119</v>
+        <v>8835</v>
       </c>
       <c r="C112">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D112">
-        <v>292.563856363296</v>
+        <v>1241.1199295520701</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.4">
@@ -5799,10 +6391,10 @@
         <v>5</v>
       </c>
       <c r="B113">
-        <v>7214</v>
+        <v>7104</v>
       </c>
       <c r="C113">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D113">
         <v>144.692310094833</v>
@@ -5813,13 +6405,13 @@
         <v>6</v>
       </c>
       <c r="B114">
-        <v>7631</v>
+        <v>7888</v>
       </c>
       <c r="C114">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D114">
-        <v>219.34012579917899</v>
+        <v>250.500393152236</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.4">
@@ -5827,13 +6419,13 @@
         <v>7</v>
       </c>
       <c r="B115">
-        <v>8114.92</v>
+        <v>8620.1999999999989</v>
       </c>
       <c r="C115">
-        <v>104.28</v>
+        <v>106.4</v>
       </c>
       <c r="D115">
-        <v>287.51624077796879</v>
+        <v>1188.5024289131079</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.4">
@@ -5841,13 +6433,13 @@
         <v>8</v>
       </c>
       <c r="B116">
-        <v>7228.2</v>
+        <v>7159</v>
       </c>
       <c r="C116">
-        <v>89.6</v>
+        <v>88.5</v>
       </c>
       <c r="D116">
-        <v>149.55000715255701</v>
+        <v>156.836552739143</v>
       </c>
     </row>
   </sheetData>
@@ -5857,18 +6449,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17016F2D-3D8F-4568-ACFA-E72A8819701A}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T36" sqref="T36"/>
+    <sheetView tabSelected="1" topLeftCell="H2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12.07421875" customWidth="1"/>
+    <col min="2" max="2" width="11.3046875" customWidth="1"/>
+    <col min="4" max="4" width="9.765625" customWidth="1"/>
+    <col min="5" max="5" width="9.69140625" customWidth="1"/>
+    <col min="7" max="7" width="14.69140625" customWidth="1"/>
+    <col min="8" max="8" width="21.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -5884,8 +6481,17 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
         <f>B2^2</f>
         <v>1</v>
@@ -5902,8 +6508,19 @@
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>LOG10(Table2[[#This Row],[Board Size]])</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>Table2[[#This Row],[Runtime]]*Table2[[#This Row],[Trials]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3">
         <f t="shared" ref="A3:A16" si="0">B3^2</f>
         <v>4</v>
@@ -5920,8 +6537,19 @@
       <c r="E3">
         <v>5.3567218780517538E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <f>LOG10(Table2[[#This Row],[Board Size]])</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H3">
+        <f>Table2[[#This Row],[Runtime]]*Table2[[#This Row],[Trials]]</f>
+        <v>0.53567218780517534</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5938,8 +6566,19 @@
       <c r="E4">
         <v>1.3221931457519508E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <f>LOG10(Table2[[#This Row],[Board Size]])</f>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H4">
+        <f>Table2[[#This Row],[Runtime]]*Table2[[#This Row],[Trials]]</f>
+        <v>1.3221931457519507</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5956,8 +6595,19 @@
       <c r="E5">
         <v>2.8918704986572247E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <f>LOG10(Table2[[#This Row],[Board Size]])</f>
+        <v>0.6020599913279624</v>
+      </c>
+      <c r="H5">
+        <f>Table2[[#This Row],[Runtime]]*Table2[[#This Row],[Trials]]</f>
+        <v>2.8918704986572248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5974,8 +6624,19 @@
       <c r="E6">
         <v>5.9278206825256301E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <f>LOG10(Table2[[#This Row],[Board Size]])</f>
+        <v>0.69897000433601886</v>
+      </c>
+      <c r="H6">
+        <f>Table2[[#This Row],[Runtime]]*Table2[[#This Row],[Trials]]</f>
+        <v>5.9278206825256303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -5992,8 +6653,19 @@
       <c r="E7">
         <v>0.30883898258209214</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <f>LOG10(Table2[[#This Row],[Board Size]])</f>
+        <v>0.77815125038364363</v>
+      </c>
+      <c r="H7">
+        <f>Table2[[#This Row],[Runtime]]*Table2[[#This Row],[Trials]]</f>
+        <v>30.883898258209214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -6010,8 +6682,19 @@
       <c r="E8">
         <v>2.4343248414993268</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <f>LOG10(Table2[[#This Row],[Board Size]])</f>
+        <v>0.84509804001425681</v>
+      </c>
+      <c r="H8">
+        <f>Table2[[#This Row],[Runtime]]*Table2[[#This Row],[Trials]]</f>
+        <v>243.43248414993269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -6028,8 +6711,19 @@
       <c r="E9">
         <v>1.5196646380424468</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <f>LOG10(Table2[[#This Row],[Board Size]])</f>
+        <v>0.90308998699194354</v>
+      </c>
+      <c r="H9">
+        <f>Table2[[#This Row],[Runtime]]*Table2[[#This Row],[Trials]]</f>
+        <v>151.96646380424468</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>81</v>
@@ -6046,8 +6740,19 @@
       <c r="E10">
         <v>6.329709289073941</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10">
+        <f>LOG10(Table2[[#This Row],[Board Size]])</f>
+        <v>0.95424250943932487</v>
+      </c>
+      <c r="H10">
+        <f>Table2[[#This Row],[Runtime]]*Table2[[#This Row],[Trials]]</f>
+        <v>632.97092890739407</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -6064,8 +6769,19 @@
       <c r="E11">
         <v>5.3325157531102478</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F11">
+        <v>300</v>
+      </c>
+      <c r="G11">
+        <f>LOG10(Table2[[#This Row],[Board Size]])</f>
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <f>Table2[[#This Row],[Runtime]]*Table2[[#This Row],[Trials]]</f>
+        <v>1599.7547259330743</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>121</v>
@@ -6082,8 +6798,19 @@
       <c r="E12">
         <v>10.875191726684552</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F12">
+        <v>100</v>
+      </c>
+      <c r="G12">
+        <f>LOG10(Table2[[#This Row],[Board Size]])</f>
+        <v>1.0413926851582251</v>
+      </c>
+      <c r="H12">
+        <f>Table2[[#This Row],[Runtime]]*Table2[[#This Row],[Trials]]</f>
+        <v>1087.5191726684552</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>144</v>
@@ -6100,8 +6827,19 @@
       <c r="E13">
         <v>43.778791482448554</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F13">
+        <v>100</v>
+      </c>
+      <c r="G13">
+        <f>LOG10(Table2[[#This Row],[Board Size]])</f>
+        <v>1.0791812460476249</v>
+      </c>
+      <c r="H13">
+        <f>Table2[[#This Row],[Runtime]]*Table2[[#This Row],[Trials]]</f>
+        <v>4377.8791482448551</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>169</v>
@@ -6109,8 +6847,28 @@
       <c r="B14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C14">
+        <v>6172.32</v>
+      </c>
+      <c r="D14">
+        <v>86.2</v>
+      </c>
+      <c r="E14">
+        <v>212.01632247924746</v>
+      </c>
+      <c r="F14">
+        <v>25</v>
+      </c>
+      <c r="G14">
+        <f>LOG10(Table2[[#This Row],[Board Size]])</f>
+        <v>1.1139433523068367</v>
+      </c>
+      <c r="H14">
+        <f>Table2[[#This Row],[Runtime]]*Table2[[#This Row],[Trials]]</f>
+        <v>5300.4080619811866</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>196</v>
@@ -6118,8 +6876,28 @@
       <c r="B15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C15">
+        <v>6853.54347826087</v>
+      </c>
+      <c r="D15">
+        <v>91.282608695652172</v>
+      </c>
+      <c r="E15">
+        <v>231.10101114148648</v>
+      </c>
+      <c r="F15">
+        <v>46</v>
+      </c>
+      <c r="G15">
+        <f>LOG10(Table2[[#This Row],[Board Size]])</f>
+        <v>1.146128035678238</v>
+      </c>
+      <c r="H15">
+        <f>Table2[[#This Row],[Runtime]]*Table2[[#This Row],[Trials]]</f>
+        <v>10630.646512508378</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>225</v>
@@ -6128,17 +6906,41 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>7666.8</v>
+        <v>7815.454545454545</v>
       </c>
       <c r="D16">
-        <v>96.4</v>
+        <v>98.181818181818187</v>
       </c>
       <c r="E16">
-        <v>215.21549615859939</v>
+        <v>482.84139524806432</v>
+      </c>
+      <c r="F16">
+        <v>11</v>
+      </c>
+      <c r="G16">
+        <f>LOG10(Table2[[#This Row],[Board Size]])</f>
+        <v>1.1760912590556813</v>
+      </c>
+      <c r="H16">
+        <f>Table2[[#This Row],[Runtime]]*Table2[[#This Row],[Trials]]</f>
+        <v>5311.2553477287074</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F17">
+        <f>SUBTOTAL(109,Table2[Trials])</f>
+        <v>1382</v>
+      </c>
+      <c r="H17">
+        <f>SUM(Table2[Avg Total Compute])</f>
+        <v>29377.394300699176</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>